--- a/test.xlsx
+++ b/test.xlsx
@@ -41,26 +41,6 @@
             <text:p>divya</text:p>
           </table:table-cell>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>shilpa</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>raj</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>nivi</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>satnam</text:p>
-          </table:table-cell>
-        </table:table-row>
       </table:table>
       <table:named-expressions/>
     </office:spreadsheet>
@@ -72,11 +52,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2020-12-15T02:16:45.363487597</meta:creation-date>
-    <dc:date>2020-12-16T11:24:57.952491256</dc:date>
-    <meta:editing-duration>PT8M25S</meta:editing-duration>
-    <meta:editing-cycles>8</meta:editing-cycles>
+    <dc:date>2020-12-16T20:10:16.043021483</dc:date>
+    <meta:editing-duration>PT11M10S</meta:editing-duration>
+    <meta:editing-cycles>10</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.4.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="5" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="1" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -88,14 +68,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">2257</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">2257</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">451</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">4</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -305,7 +285,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2020-12-16">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="11:24:41.346800028">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="20:10:00.890861966">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/test.xlsx
+++ b/test.xlsx
@@ -41,6 +41,21 @@
             <text:p>divya</text:p>
           </table:table-cell>
         </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>himanshu</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>atul</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Raja</text:p>
+          </table:table-cell>
+        </table:table-row>
       </table:table>
       <table:named-expressions/>
     </office:spreadsheet>
@@ -52,11 +67,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2020-12-15T02:16:45.363487597</meta:creation-date>
-    <dc:date>2020-12-16T20:10:16.043021483</dc:date>
-    <meta:editing-duration>PT11M10S</meta:editing-duration>
-    <meta:editing-cycles>10</meta:editing-cycles>
+    <dc:date>2020-12-17T11:21:36.314680002</dc:date>
+    <meta:editing-duration>PT14M28S</meta:editing-duration>
+    <meta:editing-cycles>12</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.4.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="1" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="4" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -68,14 +83,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">2257</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">451</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">1806</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">4</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -283,9 +298,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2020-12-16">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2020-12-17">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="20:10:00.890861966">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="11:18:39.877258526">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,8 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Gift links" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Address" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Gift_links" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Nagalla, Pavan</t>
   </si>
@@ -117,127 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">Swarna, Chamarathi W. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F342, Vijayasri Eldorado, 
-Behind Safal market, Bidare Agrahara-Bangalore 560067 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House Num.- M13  'Krushnatara Kunja'
-Jawahar Nagar Housing Society 
-Jawahar Nagar,
-Kolhapur.
-Maharashtra 
-Pin Code : 416008  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flat No.12,Hirakhan Apt, Vedant Nagar, Station Road, Aurangabad 
-431005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villa 103, Prestige Silver Oak,
-ECC Road, Whitefiled,
-Bangalore - 560066
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishna Gents PG, ITPL Back gate-3,Pattandur Agrahara Main road,KIADB Export Promotion Industrial  Area, Whitefield,Bangalore-560066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14, 2nd cross Veerappa reddy  layout,
-Munekkolala, Marathahalli,
-Bangalore- 560037
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulangara House,
-Kuttur PO,
-Thrissur,
-Kerala – 680013
-PH:9995292128
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1279, 1st Stage, Rajivnagar, Mysore – 570019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-1201,
-Nitesh Flushing Meadows
-Near Axis Bank, Seegehalli Road 
-Bangalore, 560067
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.No: #19, Murgeshpalya 5 th cross, wind tunnel road, HAL, Bangalore, KA - 560017 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swarna, Chamarathi W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ummadisetti, Ashok Babu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliamman Kovil street,
-Panayadipatti, Pavoorchatram, 
-Tenkasi (Dt),
-Tamil Nadu – 627808
-Mobile: 8825988824
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15012,Tower 15 ,Prestige Shantiniketan.
-ITPL Road Whitefield Bangalore(560048)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New no-3,1st floor,
-New colony, 3rd Street, Adambakkam,
-Chennai - 600088
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muthukrishnan, Eswar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/7, Sithan koil street, S.P.K Road, Chinnamanur. Theni(dt) - 625515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G02, Sri Pratham Apartments, St. Joseph Church Rd, Near Garden City University, Battarahalli, Bangalore, Karnataka, 560049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flat No S-2 Suryashesh Apartments Gandhi Nagar Ghaziabad UP 201001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#312, ‘Anugraha’, 9th cross, 4th Main, E and F Block, Ramakrishnanagar.
-Mysore – 570023
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madukkankal House
-Pala P.O
-Kottayam,Kerala
-Pin : 686575
-Phn: 9746582524
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pradeesh kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brajesh Kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plot no: #22/24,2nd floor,Rajeshwari Nilaya,
-Opp JMJ Hospital,Nagavara,560045.
-Mob:8099447670
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">: Flat no 103, Maruthi Mansion , 1st Floor, 3rd Cross  2nd House, Dream Paradise Layout, Basapura Road, Bangalore-560100</t>
   </si>
 </sst>
 </file>
@@ -338,7 +216,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,10 +239,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -445,13 +319,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="133.22"/>
@@ -712,274 +586,11 @@
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:C35"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="125.22"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -322,7 +322,7 @@
   <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -322,7 +322,7 @@
   <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
